--- a/Magnetar-BOM/Magnetar-BOM.xlsx
+++ b/Magnetar-BOM/Magnetar-BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>Magnetar Example BOM</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Assorted Buttons</t>
+  </si>
+  <si>
+    <t>Assorted Metric Bolts</t>
+  </si>
+  <si>
+    <t>ZURU X-Shot Excel Darts</t>
   </si>
   <si>
     <t>Total Cost :</t>
@@ -303,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -368,16 +374,13 @@
     <xf borderId="7" fillId="4" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="6" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="6" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -963,14 +966,22 @@
       <c r="L15" s="6"/>
     </row>
     <row r="16">
-      <c r="A16" s="22"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="8"/>
+      <c r="A16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C16" s="20">
+        <v>25.99</v>
+      </c>
+      <c r="D16" s="21">
+        <f t="shared" si="2"/>
+        <v>25.99</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -980,14 +991,22 @@
       <c r="L16" s="6"/>
     </row>
     <row r="17">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="25"/>
+      <c r="A17" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C17" s="20">
+        <v>9.99</v>
+      </c>
+      <c r="D17" s="21">
+        <f t="shared" si="2"/>
+        <v>9.99</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -997,9 +1016,9 @@
       <c r="L17" s="6"/>
     </row>
     <row r="18">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="23"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1014,10 +1033,10 @@
       <c r="L18" s="6"/>
     </row>
     <row r="19">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="26"/>
+      <c r="D19" s="25"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1027,16 +1046,16 @@
       <c r="L19" s="6"/>
     </row>
     <row r="20">
-      <c r="A20" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30">
+      <c r="A20" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29">
         <f>sum(D3:D18)</f>
-        <v>143.05</v>
-      </c>
-      <c r="E20" s="31"/>
+        <v>179.03</v>
+      </c>
+      <c r="E20" s="30"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -1104,7 +1123,9 @@
     <hyperlink r:id="rId11" ref="E13"/>
     <hyperlink r:id="rId12" ref="E14"/>
     <hyperlink r:id="rId13" ref="E15"/>
+    <hyperlink r:id="rId14" ref="E16"/>
+    <hyperlink r:id="rId15" ref="E17"/>
   </hyperlinks>
-  <drawing r:id="rId14"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>